--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:51:23+00:00</t>
+    <t>2024-05-23T13:22:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:22:54+00:00</t>
+    <t>2024-05-28T14:23:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:23:52+00:00</t>
+    <t>2024-06-03T14:45:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:45:40+00:00</t>
+    <t>2024-06-05T16:09:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T16:09:02+00:00</t>
+    <t>2024-06-06T08:13:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T08:13:16+00:00</t>
+    <t>2024-06-06T12:20:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T12:20:34+00:00</t>
+    <t>2024-06-06T13:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:15:28+00:00</t>
+    <t>2024-06-06T13:38:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:38:29+00:00</t>
+    <t>2024-06-06T13:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:50:16+00:00</t>
+    <t>2024-06-06T15:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T15:04:41+00:00</t>
+    <t>2024-06-10T15:12:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T15:12:05+00:00</t>
+    <t>2024-06-11T07:35:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T07:35:27+00:00</t>
+    <t>2024-06-12T14:11:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-12T14:11:34+00:00</t>
+    <t>2024-06-12T15:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-12T15:35:22+00:00</t>
+    <t>2024-06-13T07:18:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T07:18:59+00:00</t>
+    <t>2024-06-14T14:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T14:49:07+00:00</t>
+    <t>2024-06-17T12:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T12:56:05+00:00</t>
+    <t>2024-06-17T13:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:30:51+00:00</t>
+    <t>2024-06-17T14:24:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:24:56+00:00</t>
+    <t>2024-06-17T17:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T17:07:43+00:00</t>
+    <t>2024-06-18T08:49:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T08:49:52+00:00</t>
+    <t>2024-06-18T09:05:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-sos-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T09:05:56+00:00</t>
+    <t>2024-06-18T15:03:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
